--- a/数据整理/stocks/港股/01171-兖州煤业股份.xlsx
+++ b/数据整理/stocks/港股/01171-兖州煤业股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.78</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.00</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.78</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.00</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>95.17</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.68</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>95.17</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>5.68</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004532</t>
+          <t>008099</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
+          <t>广发价值领先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>45.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4082</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004533</t>
+          <t>011174</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
+          <t>中庚价值品质一年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>29.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0856</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -706,26 +786,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005576</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞新金融地产灵活配置混合</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -734,25 +824,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>501306</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>92.48</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>5.16</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>005821</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>万家新机遇龙头企业灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>70.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -790,26 +900,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000049</t>
+          <t>005576</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中银标普全球精选自然资源等权重指数(QDII)</t>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88.09</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -818,26 +938,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005821</t>
+          <t>004532</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>万家新机遇龙头企业灵活配置混合</t>
+          <t>民生加银中证港股通高股息精选指数A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>70.99</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -856,15 +986,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>93.40</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>3.89</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>3</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006659</t>
+          <t>005702</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数C</t>
+          <t>恒生前海港股通高股息低波动指数</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011174</t>
+          <t>004533</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中庚价值品质一年持有期混合</t>
+          <t>民生加银中证港股通高股息精选指数C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>88.38</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005702</t>
+          <t>000049</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恒生前海港股通高股息低波动指数</t>
+          <t>中银标普全球精选自然资源等权重指数(QDII)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -958,25 +1128,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>006659</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>财通中证香港红利等权投资指数C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>72.96</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>3</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01171-兖州煤业股份.xlsx
+++ b/数据整理/stocks/港股/01171-兖州煤业股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3115</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01171-兖州煤业股份.xlsx
+++ b/数据整理/stocks/港股/01171-兖州煤业股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1714,4 +1715,1238 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.6740</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7990</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3610</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>53.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3425</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>30.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2212</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1843</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1718</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>60.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>35.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>11.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>30.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>11.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01171-兖州煤业股份.xlsx
+++ b/数据整理/stocks/港股/01171-兖州煤业股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2949,4 +2950,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01171-兖州煤业股份.xlsx
+++ b/数据整理/stocks/港股/01171-兖州煤业股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2958,7 +2959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2969,17 +2970,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2989,14 +3010,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.73</v>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7339</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3005,14 +3048,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.68</v>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4118</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3021,14 +3086,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.69</v>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>123.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0639</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3037,13 +3124,873 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>65.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6494</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4447</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4087</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4041</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2588</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>53.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01171-兖州煤业股份.xlsx
+++ b/数据整理/stocks/港股/01171-兖州煤业股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3889,7 +3890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3900,17 +3901,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3920,14 +3941,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.95</v>
+          <t>010340</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达高质量严选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>113.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.9003</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3936,14 +3979,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.73</v>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>123.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>62.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.1156</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3952,14 +4017,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.68</v>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1987</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3968,14 +4055,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.69</v>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6882</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3984,13 +4093,2440 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9776</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501088</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实瑞虹三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8850</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8249</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7883</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6605</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6313</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>56.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6013</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5979</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5654</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013991</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5380</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501091</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实瑞熙三年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5017</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4473</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007895</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实价值成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4452</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3287</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3280</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2697</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2667</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008528</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2485</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2390</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008513</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方宝丰混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>51.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2271</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013992</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2224</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>70.06</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2002</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1924</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1834</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1823</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>58.93</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>64.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>70.06</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010415</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008514</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方宝丰混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001824</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博时沪港深成长企业混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010416</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>65</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01171-兖州煤业股份.xlsx
+++ b/数据整理/stocks/港股/01171-兖州煤业股份.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,205 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501305</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0504</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>65</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>501306</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0236</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004532</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>95.17</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004533</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.17</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -664,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -715,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>010340</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>易方达高质量严选三年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>45.87</t>
+          <t>113.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>72.96</t>
+          <t>91.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.4082</t>
+          <t>7.9003</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -753,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011174</t>
+          <t>011363</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中庚价值品质一年持有期混合</t>
+          <t>南方兴润价值一年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29.42</t>
+          <t>123.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.38</t>
+          <t>62.78</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0856</t>
+          <t>6.1156</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -791,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>011220</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>南方匠心优选股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>34.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>92.52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0888</t>
+          <t>2.1987</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -829,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>010608</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>华泰柏瑞质量领先混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>38.81</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>94.11</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0304</t>
+          <t>1.6882</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -867,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005821</t>
+          <t>011364</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>万家新机遇龙头企业灵活配置混合</t>
+          <t>南方兴润价值一年持有期混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>19.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>70.99</t>
+          <t>62.78</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0210</t>
+          <t>0.9776</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -905,32 +829,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005576</t>
+          <t>501088</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞新金融地产灵活配置混合</t>
+          <t>嘉实瑞虹三年定期开放混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>35.83</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>92.46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0177</t>
+          <t>0.8850</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -943,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004532</t>
+          <t>160526</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>14.81</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>82.86</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0113</t>
+          <t>0.8249</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -981,36 +905,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>012588</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>37.54</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>71.00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0089</t>
+          <t>0.7883</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1019,36 +943,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005702</t>
+          <t>001764</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>恒生前海港股通高股息低波动指数</t>
+          <t>广发沪港深新机遇股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>11.12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>92.18</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0075</t>
+          <t>0.6605</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1057,17 +981,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004533</t>
+          <t>010761</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
+          <t>华商甄选回报混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>20.63</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1077,16 +1001,16 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0071</t>
+          <t>0.6313</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1095,36 +1019,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000049</t>
+          <t>501062</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中银标普全球精选自然资源等权重指数(QDII)</t>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>88.09</t>
+          <t>56.71</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>8.74</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0043</t>
+          <t>0.6013</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1133,36 +1057,2043 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5979</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5654</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013991</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5380</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501091</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实瑞熙三年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5017</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4473</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007895</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实价值成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4452</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3287</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3280</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2697</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2667</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008528</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2485</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2390</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008513</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方宝丰混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>51.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2271</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013992</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2224</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>70.06</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2002</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1924</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1834</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1823</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>58.93</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>64.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>70.06</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010415</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008514</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方宝丰混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001824</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博时沪港深成长企业混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010416</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
           <t>006659</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>财通中证香港红利等权投资指数C</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.40</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +3107,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1197,7 +3128,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1237,26 +3168,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32.88</t>
+          <t>63.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>92.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>9.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.3115</t>
+          <t>5.7339</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1265,32 +3196,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>006551</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>中庚价值领航混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>36.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>94.41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>9.35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1306</t>
+          <t>3.4118</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1303,36 +3234,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>011363</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>南方兴润价值一年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>123.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>65.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0711</t>
+          <t>3.0639</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1341,36 +3272,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007178</t>
+          <t>011364</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+          <t>南方兴润价值一年持有期混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>26.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.20</t>
+          <t>65.36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0607</t>
+          <t>0.6494</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1379,36 +3310,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004532</t>
+          <t>001764</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
+          <t>广发沪港深新机遇股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>11.58</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>91.62</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0231</t>
+          <t>0.4447</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1417,36 +3348,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004316</t>
+          <t>008891</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+          <t>安信价值成长混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>11.26</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>91.54</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0220</t>
+          <t>0.4087</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1455,32 +3386,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004317</t>
+          <t>501062</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>69.62</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0130</t>
+          <t>0.4041</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1493,36 +3424,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004098</t>
+          <t>011856</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源港股通股息率50强股票</t>
+          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>87.28</t>
+          <t>89.87</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0117</t>
+          <t>0.2588</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1531,36 +3462,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004533</t>
+          <t>007178</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>93.80</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>7.67</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0108</t>
+          <t>0.2040</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1579,26 +3510,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>91.70</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0096</t>
+          <t>0.0985</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1607,36 +3538,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005702</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恒生前海港股通高股息低波动指数</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>86.14</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0076</t>
+          <t>0.0648</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1645,36 +3576,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007216</t>
+          <t>008488</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+          <t>华商恒益稳健混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>89.20</t>
+          <t>53.78</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.0509</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1683,36 +3614,416 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>006659</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>财通中证香港红利等权投资指数C</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2960,7 +5271,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2981,7 +5292,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3021,26 +5332,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>63.01</t>
+          <t>32.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>92.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.10</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.7339</t>
+          <t>2.3115</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3049,32 +5360,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006551</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中庚价值领航混合</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>36.49</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>89.89</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.35</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.4118</t>
+          <t>0.1306</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -3087,36 +5398,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011363</t>
+          <t>501306</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方兴润价值一年持有期混合A</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>123.05</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>65.36</t>
+          <t>89.89</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.0639</t>
+          <t>0.0711</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3125,36 +5436,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011364</t>
+          <t>007178</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方兴润价值一年持有期混合C</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26.08</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>65.36</t>
+          <t>89.20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6494</t>
+          <t>0.0607</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3163,36 +5474,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001764</t>
+          <t>004532</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发沪港深新机遇股票</t>
+          <t>民生加银中证港股通高股息精选指数A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.58</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.62</t>
+          <t>92.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4447</t>
+          <t>0.0231</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -3201,36 +5512,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008891</t>
+          <t>004316</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>安信价值成长混合A</t>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.26</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.54</t>
+          <t>90.67</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4087</t>
+          <t>0.0220</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -3239,32 +5550,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501062</t>
+          <t>004317</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方瑞合三年定期开放混合(LOF)</t>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>69.62</t>
+          <t>90.67</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4041</t>
+          <t>0.0130</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -3277,36 +5588,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011856</t>
+          <t>004098</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
+          <t>前海开源港股通股息率50强股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.87</t>
+          <t>87.28</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2588</t>
+          <t>0.0117</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -3315,36 +5626,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007178</t>
+          <t>004533</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+          <t>民生加银中证港股通高股息精选指数C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>92.27</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.67</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2040</t>
+          <t>0.0108</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -3363,26 +5674,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>91.70</t>
+          <t>92.75</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0985</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -3391,36 +5702,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>005702</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>恒生前海港股通高股息低波动指数</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>86.14</t>
+          <t>92.82</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6.61</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0648</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -3429,36 +5740,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008488</t>
+          <t>007216</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华商恒益稳健混合</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>53.78</t>
+          <t>89.20</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0509</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -3467,416 +5778,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>241001</t>
+          <t>006659</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华宝海外中国混合(QDII)</t>
+          <t>财通中证香港红利等权投资指数C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>92.75</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0362</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004316</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0235</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008892</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>安信价值成长混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.54</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0167</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004317</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0160</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>007216</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0146</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>501306</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>86.14</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0145</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>011857</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>89.87</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0141</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>004098</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>前海开源港股通股息率50强股票</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>86.44</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>501307</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>90.53</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>006659</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>501308</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>90.53</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3890,7 +5821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3911,7 +5842,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3941,36 +5872,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010340</t>
+          <t>008099</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达高质量严选三年持有期混合</t>
+          <t>广发价值领先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>113.51</t>
+          <t>45.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>72.96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.96</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7.9003</t>
+          <t>2.4082</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3979,36 +5910,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011363</t>
+          <t>011174</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方兴润价值一年持有期混合A</t>
+          <t>中庚价值品质一年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>123.05</t>
+          <t>29.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>62.78</t>
+          <t>88.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6.1156</t>
+          <t>1.0856</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -4017,36 +5948,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011220</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方匠心优选股票A</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>34.57</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.52</t>
+          <t>92.48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.36</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.1987</t>
+          <t>0.0888</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -4055,36 +5986,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010608</t>
+          <t>501306</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞质量领先混合A</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>38.81</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>92.48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.6882</t>
+          <t>0.0304</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -4093,36 +6024,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011364</t>
+          <t>005821</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方兴润价值一年持有期混合C</t>
+          <t>万家新机遇龙头企业灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19.67</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>62.78</t>
+          <t>70.99</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9776</t>
+          <t>0.0210</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -4131,32 +6062,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501088</t>
+          <t>005576</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实瑞虹三年定期开放混合</t>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>35.83</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.46</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8850</t>
+          <t>0.0177</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -4169,36 +6100,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>160526</t>
+          <t>004532</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+          <t>民生加银中证港股通高股息精选指数A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>14.81</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>82.86</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.8249</t>
+          <t>0.0113</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -4207,36 +6138,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>012588</t>
+          <t>006658</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方港股通优势企业混合型证券投资基金A</t>
+          <t>财通中证香港红利等权投资指数A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>37.54</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>71.00</t>
+          <t>93.40</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.7883</t>
+          <t>0.0089</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -4245,36 +6176,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001764</t>
+          <t>005702</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发沪港深新机遇股票</t>
+          <t>恒生前海港股通高股息低波动指数</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11.12</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.18</t>
+          <t>94.25</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.6605</t>
+          <t>0.0075</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -4283,17 +6214,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010761</t>
+          <t>004533</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华商甄选回报混合</t>
+          <t>民生加银中证港股通高股息精选指数C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>20.63</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -4303,16 +6234,16 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.6313</t>
+          <t>0.0071</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -4321,36 +6252,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>501062</t>
+          <t>000049</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>南方瑞合三年定期开放混合(LOF)</t>
+          <t>中银标普全球精选自然资源等权重指数(QDII)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>56.71</t>
+          <t>88.09</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>8.74</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.6013</t>
+          <t>0.0043</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -4359,2043 +6290,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010338</t>
+          <t>006659</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国投瑞银远见成长混合A</t>
+          <t>财通中证香港红利等权投资指数C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>13.17</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>77.42</t>
+          <t>93.40</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.5979</t>
+          <t>0.0012</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007178</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>7.93</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.20</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.5654</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>013991</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中欧港股通精选一年持有混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>12.87</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.5380</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>501091</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>嘉实瑞熙三年封闭运作混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>18.65</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>95.82</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.5017</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>011856</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>89.66</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>6.86</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.4473</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>007895</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>嘉实价值成长混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>16.19</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.49</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.4452</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006921</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>南方智诚混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.3287</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>007216</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>90.20</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.3280</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>900008</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中信证券稳健回报混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>88.19</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.2697</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>011046</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>富国优质企业混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>8.18</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>71.23</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.2667</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>008528</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华泰柏瑞质量成长混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.2485</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005810</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>南方瑞祥一年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>90.65</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.2390</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>008513</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>南方宝丰混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>51.62</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>21.13</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.2271</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>013992</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中欧港股通精选一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.2224</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009782</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>富国兴泉回报12个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>70.06</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.2002</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>008891</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>安信价值成长混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>92.41</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1924</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>009880</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>安信成长动力一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1834</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>010029</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>富国稳进回报12个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>9.16</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>30.21</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1823</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>008404</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>华泰紫金泰盈混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>79.73</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.1652</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>501305</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>10.09</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.1604</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>010609</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>华泰柏瑞质量领先混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>94.11</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.1562</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>008405</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>华泰紫金泰盈混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>79.73</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.1428</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>011221</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>南方匠心优选股票C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>92.52</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.1259</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>008488</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>华商恒益稳健混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>58.93</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0970</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
         <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>011384</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>南方远见回报股票A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>91.80</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0926</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>010339</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>国投瑞银远见成长混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>77.42</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0917</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>005732</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>富国臻选成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>64.81</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0796</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>009783</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>富国兴泉回报12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>70.06</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0794</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>241001</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>华宝海外中国混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>86.89</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0764</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>010415</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>华泰柏瑞质量精选混合A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0729</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>900078</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>中信证券稳健回报混合C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>88.19</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0704</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>013626</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>华夏周期驱动混合A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>90.84</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0619</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>008253</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>华宝致远混合（QDII）A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>85.00</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>8.65</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0606</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>012589</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>南方港股通优势企业混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>71.00</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0430</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>008892</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>安信价值成长混合C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>92.41</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0422</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>013627</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>华夏周期驱动混合C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>90.84</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0373</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>010030</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>富国稳进回报12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>30.21</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0257</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>005811</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>南方瑞祥一年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>90.65</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0238</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>011857</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>89.66</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>6.86</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0220</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>501306</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>10.09</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0212</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>008514</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>南方宝丰混合C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>21.13</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>004316</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>90.55</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0204</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>004098</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>前海开源港股通股息率50强股票</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>88.92</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>011047</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>富国优质企业混合C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>71.23</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0156</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>011385</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>南方远见回报股票C</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>91.80</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0150</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>004317</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>90.55</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0149</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>008254</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>华宝致远混合（QDII）C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>85.00</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>8.65</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0104</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>006658</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数A</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>90.59</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0096</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>501307</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>91.35</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>001824</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>博时沪港深成长企业混合</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>93.41</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>010416</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>华泰柏瑞质量精选混合C</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>006659</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数C</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>90.59</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>501308</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>91.35</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>007234</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>82.86</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6409,128 +6333,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>65</v>
-      </c>
-      <c r="D2" t="n">
-        <v>31.14</v>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.95</v>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.73</v>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.69</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.09</v>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>